--- a/posesiones/1486015.xlsx
+++ b/posesiones/1486015.xlsx
@@ -1835,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>12</v>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>15</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>22</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>40</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>26</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>16</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>7</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>16</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>23</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>18</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>10</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3379,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>18</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>7</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>12</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>6</v>
@@ -3735,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>21</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R43">
         <v>15</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>21</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4038,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>14</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R54">
         <v>14</v>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55">
         <v>12</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>9</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>19</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>19</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>10</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>2</v>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5270,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>10</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>16</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5520,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R77">
         <v>13</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R79">
         <v>9</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R87">
         <v>37</v>
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>15</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R100">
         <v>20</v>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R102">
         <v>22</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R110">
         <v>24</v>
@@ -7169,10 +7169,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7401,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7454,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R117">
         <v>7</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R119">
         <v>30</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R121">
         <v>19</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7848,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R125">
         <v>28</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7948,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R127">
         <v>5</v>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R128">
         <v>18</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R130">
         <v>21</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R133">
         <v>16</v>
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R134">
         <v>11</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8730,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R143">
         <v>11</v>
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R144">
         <v>25</v>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R150">
         <v>21</v>
@@ -9124,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9174,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R152">
         <v>3</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9324,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R155">
         <v>16</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R161">
         <v>14</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9812,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R165">
         <v>20</v>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R169">
         <v>26</v>
@@ -10056,7 +10056,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R170">
         <v>15</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10159,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R172">
         <v>8</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10594,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R181">
         <v>11</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10738,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R186">
         <v>18</v>
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R187">
         <v>25</v>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11088,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R191">
         <v>5</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11426,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R198">
         <v>63</v>
@@ -11479,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R199">
         <v>24</v>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11917,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R208">
         <v>11</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R211">
         <v>0</v>
@@ -12114,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12164,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R213">
         <v>2</v>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12264,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R215">
         <v>7</v>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12367,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R217">
         <v>13</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12461,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12508,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12652,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12702,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R224">
         <v>26</v>
@@ -12755,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R226">
         <v>7</v>
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R228">
         <v>22</v>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R230">
         <v>16</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13196,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R234">
         <v>8</v>
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13290,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13669,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R244">
         <v>13</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13760,10 +13760,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q246">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14045,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14186,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14274,10 +14274,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14424,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R260">
         <v>23</v>
@@ -14477,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14574,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14668,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14718,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R266">
         <v>31</v>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R268">
         <v>17</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14915,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15015,7 +15015,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R272">
         <v>18</v>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R274">
         <v>5</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15265,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R278">
         <v>23</v>
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R281">
         <v>16</v>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15565,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R283">
         <v>7</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15665,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R285">
         <v>20</v>
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R287">
         <v>13</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15868,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R289">
         <v>21</v>
@@ -15918,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15968,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R291">
         <v>18</v>
@@ -16018,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16068,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R293">
         <v>11</v>
@@ -16118,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16215,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R296">
         <v>16</v>
@@ -16265,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16315,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R298">
         <v>7</v>
@@ -16368,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R299">
         <v>26</v>
@@ -16418,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16468,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R301">
         <v>15</v>
@@ -16518,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16565,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R304">
         <v>11</v>
@@ -16668,7 +16668,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16718,7 +16718,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R306">
         <v>6</v>
@@ -16768,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16815,7 +16815,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16915,7 +16915,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R310">
         <v>20</v>
@@ -16968,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17015,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17203,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R317">
         <v>7</v>
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17397,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17444,7 +17444,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17494,7 +17494,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R322">
         <v>12</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R329">
         <v>24</v>
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17929,7 +17929,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R331">
         <v>14</v>
@@ -17979,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18170,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R336">
         <v>0</v>
@@ -18223,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R337">
         <v>15</v>
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18323,7 +18323,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R339">
         <v>22</v>
@@ -18376,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R341">
         <v>15</v>
@@ -18476,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18570,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18711,7 +18711,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18761,7 +18761,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R348">
         <v>20</v>
@@ -18811,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18858,7 +18858,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18905,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18952,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18999,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19049,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19099,7 +19099,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R355">
         <v>17</v>
@@ -19149,7 +19149,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19246,7 +19246,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19296,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19346,7 +19346,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R360">
         <v>20</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19443,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19537,7 +19537,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19634,7 +19634,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R366">
         <v>13</v>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R369">
         <v>15</v>
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19978,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20025,7 +20025,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R375">
         <v>18</v>
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20172,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20219,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20266,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20313,7 +20313,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20360,7 +20360,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20407,7 +20407,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20457,7 +20457,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R383">
         <v>11</v>
@@ -20510,7 +20510,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R384">
         <v>25</v>
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20607,7 +20607,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20654,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20701,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20748,7 +20748,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20792,7 +20792,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20886,7 +20886,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20933,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20980,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21077,7 +21077,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R396">
         <v>22</v>
@@ -21130,7 +21130,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R397">
         <v>5</v>
@@ -21174,10 +21174,10 @@
         <v>1</v>
       </c>
       <c r="P398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21224,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21271,7 +21271,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21365,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21459,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21500,10 +21500,10 @@
         <v>1</v>
       </c>
       <c r="P405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q405">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21553,7 +21553,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R406">
         <v>17</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21656,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R408">
         <v>16</v>
@@ -21709,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21759,7 +21759,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R410">
         <v>8</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21859,7 +21859,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R412">
         <v>21</v>
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21956,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22003,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22050,7 +22050,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22100,7 +22100,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R417">
         <v>6</v>
@@ -22153,7 +22153,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R418">
         <v>26</v>
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22256,7 +22256,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R420">
         <v>8</v>
@@ -22309,7 +22309,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R421">
         <v>7</v>
@@ -22359,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22409,7 +22409,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R423">
         <v>17</v>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22509,7 +22509,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R425">
         <v>15</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22609,7 +22609,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R427">
         <v>8</v>
@@ -22656,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22797,7 +22797,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22844,7 +22844,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22891,7 +22891,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22938,7 +22938,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -22985,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23082,7 +23082,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R437">
         <v>22</v>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23182,7 +23182,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R439">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23282,7 +23282,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R441">
         <v>3</v>
@@ -23335,7 +23335,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R442">
         <v>7</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23432,7 +23432,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23529,7 +23529,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R446">
         <v>20</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23726,7 +23726,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R450">
         <v>30</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23923,7 +23923,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R454">
         <v>25</v>
@@ -23976,7 +23976,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R455">
         <v>21</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24073,7 +24073,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24120,7 +24120,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24217,7 +24217,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R460">
         <v>35</v>
@@ -24267,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24314,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24364,7 +24364,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R463">
         <v>32</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24558,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24608,7 +24608,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24705,7 +24705,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24755,7 +24755,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R471">
         <v>30</v>
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R472">
         <v>13</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24902,7 +24902,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24952,7 +24952,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R475">
         <v>18</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25055,7 +25055,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R477">
         <v>21</v>
@@ -25105,7 +25105,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25152,7 +25152,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25340,7 +25340,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25390,7 +25390,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R484">
         <v>14</v>
@@ -25440,7 +25440,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25490,7 +25490,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R486">
         <v>14</v>
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25590,7 +25590,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R488">
         <v>12</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25740,7 +25740,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25787,7 +25787,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25884,7 +25884,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R494">
         <v>22</v>
@@ -25934,7 +25934,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -25981,7 +25981,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26078,7 +26078,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26172,7 +26172,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26219,7 +26219,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26266,7 +26266,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26313,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26363,7 +26363,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R504">
         <v>25</v>
@@ -26416,7 +26416,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26466,7 +26466,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R506">
         <v>18</v>
@@ -26516,7 +26516,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26566,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R508">
         <v>12</v>
@@ -26619,7 +26619,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26669,7 +26669,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R510">
         <v>21</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26766,7 +26766,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26816,7 +26816,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26863,7 +26863,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26910,7 +26910,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -26957,7 +26957,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27007,7 +27007,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R517">
         <v>13</v>
@@ -27051,10 +27051,10 @@
         <v>1</v>
       </c>
       <c r="P518" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q518">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
